--- a/notes/Balancing.xlsx
+++ b/notes/Balancing.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Daten" sheetId="1" r:id="rId1"/>
     <sheet name="Wellen" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="50">
   <si>
     <t>Lightwave Tower</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Properties</t>
   </si>
   <si>
-    <t>Interval in s</t>
-  </si>
-  <si>
     <t>Effect</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>Speed</t>
   </si>
   <si>
-    <t>Range</t>
-  </si>
-  <si>
     <t>Tower</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
     <t>Waves</t>
   </si>
   <si>
-    <t>Effect Duration</t>
-  </si>
-  <si>
     <t>Enemy Path</t>
   </si>
   <si>
@@ -190,9 +181,6 @@
     <t>Sell Price</t>
   </si>
   <si>
-    <t>Base HP</t>
-  </si>
-  <si>
     <t>Enemy</t>
   </si>
   <si>
@@ -226,12 +214,6 @@
     <t>with 1x slow</t>
   </si>
   <si>
-    <t>Infinity Line</t>
-  </si>
-  <si>
-    <t>Gems Total</t>
-  </si>
-  <si>
     <t>Monster Total</t>
   </si>
   <si>
@@ -241,9 +223,6 @@
     <t>HP Total</t>
   </si>
   <si>
-    <t>DMG Total</t>
-  </si>
-  <si>
     <t>Num of Fields</t>
   </si>
   <si>
@@ -260,13 +239,31 @@
   </si>
   <si>
     <t>Sound Wave</t>
+  </si>
+  <si>
+    <t>Intervall in s</t>
+  </si>
+  <si>
+    <t>Crystal Total</t>
+  </si>
+  <si>
+    <t>Wave-Summary</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>HP-Summary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +274,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,12 +307,17 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -327,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -402,51 +411,45 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
-    <cellStyle name="Notiz" xfId="2" builtinId="10"/>
+  <cellStyles count="4">
+    <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
+    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
+    <cellStyle name="Notiz" xfId="3" builtinId="10"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,6 +463,1808 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Monsters</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Daten!$V$18:$V$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8E80-4CD0-B890-1BFA292D6D5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="356149480"/>
+        <c:axId val="357996832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="356149480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357996832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="357996832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356149480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Health Points</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Daten!$Y$18:$Y$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16275</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B43-455E-9362-2CF17029C27A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="360964624"/>
+        <c:axId val="360966264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="360964624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360966264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="360966264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360964624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF49AE8-9E47-4418-A248-0E716B5793F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDF17D2-A3E3-4535-80A8-8595E752C613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -759,10 +2564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q49"/>
+  <dimension ref="B3:Y49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,31 +2585,31 @@
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N3" s="3"/>
-      <c r="P3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -821,155 +2626,155 @@
         <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="N4" s="2">
-        <v>30</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="4">
+        <v>20</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2">
         <v>0.5</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2">
-        <f>H6*Q7/K6</f>
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="I5" s="2">
-        <f>I6*Q7/K6</f>
+        <v>150</v>
+      </c>
+      <c r="J5" s="2">
         <v>100</v>
       </c>
-      <c r="J5" s="2">
-        <f>J6*Q7/K6</f>
-        <v>75</v>
-      </c>
       <c r="K5" s="2">
-        <f>Q7*K6</f>
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N5" s="2">
         <v>300</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="4">
+      <c r="P5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="6">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="13">
+        <v>10.5</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.2</v>
+        <v>8</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="2">
         <v>1.25</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J6" s="2">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="K6" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="6">
         <v>3</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>90</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
       <c r="E7" s="2">
-        <f>3*H6</f>
-        <v>3.75</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="2">
         <v>7</v>
       </c>
       <c r="J7" s="2">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2">
+        <v>20</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2">
+        <f>C7/2</f>
+        <v>45</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:E8" si="0">D7/2</f>
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="P7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -984,580 +2789,684 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2">
-        <v>80</v>
+        <f>C6/C5</f>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
-        <v>150</v>
-      </c>
-      <c r="E9" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2">
-        <f>C9/2</f>
-        <v>40</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:E10" si="0">D9/2</f>
-        <v>75</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="2">
+        <f>D6/D5</f>
+        <v>8</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2">
         <f>(H6*Q5)/60</f>
         <v>1.1875</v>
       </c>
+      <c r="I9" s="2">
+        <f>(I6*Q5)/60</f>
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="J9" s="2">
+        <f>(J6*Q5)/60</f>
+        <v>0.33249999999999996</v>
+      </c>
+      <c r="K9" s="2">
+        <f>(K6*Q5)/60</f>
+        <v>1.6625000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="2">
+        <f>H6+(H6*E6)</f>
+        <v>1.75</v>
+      </c>
       <c r="I10" s="2">
-        <f>(I6*Q5)/60</f>
-        <v>0.95</v>
+        <f>I6+(I6*E6)</f>
+        <v>1.05</v>
       </c>
       <c r="J10" s="2">
-        <f>(J6*Q5)/60</f>
-        <v>0.71250000000000002</v>
+        <f>J6+(J6*E6)</f>
+        <v>0.49</v>
       </c>
       <c r="K10" s="2">
-        <f>(K6*Q5)/60</f>
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2">
-        <f>C6/C5</f>
-        <v>20</v>
-      </c>
-      <c r="D11" s="2">
-        <f>D6/D5</f>
-        <v>2.5</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="G11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="2">
-        <f>H6+(H6*E6)</f>
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="2">
-        <f>I6+(I6*E6)</f>
-        <v>1.2</v>
-      </c>
-      <c r="J11" s="2">
-        <f>J6+(J6*E6)</f>
-        <v>0.9</v>
-      </c>
-      <c r="K11" s="2">
         <f>K6+(K6*E6)</f>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="E14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="11"/>
       <c r="H14" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
         <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="2">
         <v>8</v>
       </c>
-      <c r="F16" s="2">
-        <v>20</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="K16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="2">
+        <v>13</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V16" s="5"/>
+      <c r="X16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y16" s="5"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="2">
+        <v>7</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="2">
+        <v>8</v>
+      </c>
+      <c r="U18" s="4">
+        <v>1</v>
+      </c>
+      <c r="V18" s="4">
+        <f>C21</f>
+        <v>12</v>
+      </c>
+      <c r="X18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="4">
+        <f>C22</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="U19" s="4">
+        <v>2</v>
+      </c>
+      <c r="V19" s="4">
+        <f>F21</f>
+        <v>12</v>
+      </c>
+      <c r="X19" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="4">
+        <f>F22</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2">
         <f>C19*$K$7+C18*$J$7+C17*$I$7+C16*$H$7</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2">
         <f>F19*$K$7+F18*$J$7+F17*$I$7+F16*$H$7</f>
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I20" s="2">
         <f>I19*$K$7+I18*$J$7+I17*$I$7+I16*$H$7</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L20" s="2">
         <f>L19*$K$7+L18*$J$7+L17*$I$7+L16*$H$7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="U20" s="4">
+        <v>3</v>
+      </c>
+      <c r="V20" s="4">
+        <f>I21</f>
+        <v>11</v>
+      </c>
+      <c r="X20" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="4">
+        <f>I22</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
         <f>SUM(C16:C19)</f>
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F21" s="2">
         <f>SUM(F16:F19)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I21" s="2">
         <f>SUM(I16:I19)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L21" s="2">
         <f>SUM(L16:L19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="U21" s="4">
+        <v>4</v>
+      </c>
+      <c r="V21" s="4">
+        <f>L21</f>
+        <v>28</v>
+      </c>
+      <c r="X21" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="4">
+        <f>L22</f>
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2">
         <f>C19*$K$5+C18*$J$5+C17*$I$5+C16*$H$5</f>
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2">
         <f>F19*$K$5+F18*$J$5+F17*$I$5+F16*$H$5</f>
-        <v>2500</v>
+        <v>2025</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I22" s="2">
         <f>I19*$K$5+I18*$J$5+I17*$I$5+I16*$H$5</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L22" s="2">
         <f>L19*$K$5+L18*$J$5+L17*$I$5+L16*$H$5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+        <v>4125</v>
+      </c>
+      <c r="U22" s="4">
+        <v>5</v>
+      </c>
+      <c r="V22" s="4">
+        <f>C33</f>
+        <v>45</v>
+      </c>
+      <c r="X22" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="4">
+        <f>C34</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="U23" s="4">
+        <v>6</v>
+      </c>
+      <c r="V23" s="4">
+        <f>F33</f>
+        <v>56</v>
+      </c>
+      <c r="X23" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="4">
+        <f>F34</f>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="U24" s="4">
+        <v>7</v>
+      </c>
+      <c r="V24" s="4">
+        <f>I33</f>
+        <v>81</v>
+      </c>
+      <c r="X24" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="4">
+        <f>I34</f>
+        <v>16275</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="U25" s="4">
+        <v>8</v>
+      </c>
+      <c r="V25" s="4">
+        <f>L33</f>
+        <v>226</v>
+      </c>
+      <c r="X25" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y25" s="4">
+        <f>L34</f>
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="3"/>
+      <c r="E26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="11"/>
       <c r="H26" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2">
         <v>28</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
+      <c r="H28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="2">
+        <v>21</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="C29" s="2">
+        <v>23</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="F29" s="2">
+        <v>6</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="I29" s="2">
+        <v>22</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
+      <c r="L29" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="C30" s="2">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="F30" s="2">
+        <v>20</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="I30" s="2">
+        <v>33</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
+      <c r="L30" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" s="2">
         <v>2</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I31" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L31" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2">
         <f>C31*$K$7+C30*$J$7+C29*$I$7+C28*$H$7</f>
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F32" s="2">
         <f>F31*$K$7+F30*$J$7+F29*$I$7+F28*$H$7</f>
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I32" s="2">
         <f>I31*$K$7+I30*$J$7+I29*$I$7+I28*$H$7</f>
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L32" s="2">
         <f>L31*$K$7+L30*$J$7+L29*$I$7+L28*$H$7</f>
-        <v>0</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2">
         <f>SUM(C28:C31)</f>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F33" s="2">
         <f>SUM(F28:F31)</f>
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I33" s="2">
         <f>SUM(I28:I31)</f>
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L33" s="2">
         <f>SUM(L28:L31)</f>
-        <v>8</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2">
         <f>C31*$K$5+C30*$J$5+C29*$I$5+C28*$H$5</f>
-        <v>900</v>
+        <v>7500</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F34" s="2">
         <f>F31*$K$5+F30*$J$5+F29*$I$5+F28*$H$5</f>
-        <v>1800</v>
+        <v>10200</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I34" s="2">
         <f>I31*$K$5+I30*$J$5+I29*$I$5+I28*$H$5</f>
-        <v>3600</v>
+        <v>16275</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L34" s="2">
         <f>L31*$K$5+L30*$J$5+L29*$I$5+L28*$H$5</f>
-        <v>7200</v>
+        <v>44150</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
       <c r="H38" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -1566,34 +3475,34 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
@@ -1601,39 +3510,39 @@
         <v>1</v>
       </c>
       <c r="C40" s="2">
-        <f>(H$6*$B40)*$C$11</f>
-        <v>25</v>
+        <f>(H$6*$B40)*$C$9</f>
+        <v>26.25</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" ref="D40:F40" si="1">(I$6*$B40)*$C$11</f>
-        <v>20</v>
+        <f>(I$6*$B40)*$C$9</f>
+        <v>15.75</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f>(J$6*$B40)*$C$9</f>
+        <v>7.35</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>(K$6*$B40)*$C$9</f>
+        <v>36.75</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
       </c>
       <c r="I40" s="2">
-        <f>((H$6*$H40)*$D$11)*$C$21</f>
-        <v>37.5</v>
+        <f>((H$6*$H40)*$D$9)*$C$21</f>
+        <v>120</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" ref="J40:L40" si="2">((I$6*$H40)*$D$11)*$C$21</f>
-        <v>30</v>
+        <f>((I$6*$H40)*$D$9)*$C$21</f>
+        <v>72</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="2"/>
-        <v>22.5</v>
+        <f>((J$6*$H40)*$D$9)*$C$21</f>
+        <v>33.599999999999994</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <f>((K$6*$H40)*$D$9)*$C$21</f>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
@@ -1641,39 +3550,39 @@
         <v>2</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" ref="C41:C49" si="3">(H$6*$B41)*$C$11</f>
-        <v>50</v>
+        <f>(H$6*$B41)*$C$9</f>
+        <v>52.5</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" ref="D41:D49" si="4">(I$6*$B41)*$C$11</f>
-        <v>40</v>
+        <f>(I$6*$B41)*$C$9</f>
+        <v>31.5</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ref="E41:E49" si="5">(J$6*$B41)*$C$11</f>
-        <v>30</v>
+        <f>(J$6*$B41)*$C$9</f>
+        <v>14.7</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" ref="F41:F49" si="6">(K$6*$B41)*$C$11</f>
-        <v>120</v>
+        <f>(K$6*$B41)*$C$9</f>
+        <v>73.5</v>
       </c>
       <c r="H41" s="2">
         <v>2</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" ref="I41:L41" si="7">((H$6*$H41)*$D$11)*$C$21</f>
-        <v>75</v>
+        <f>((H$6*$H41)*$D$9)*$C$21</f>
+        <v>240</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <f>((I$6*$H41)*$D$9)*$C$21</f>
+        <v>144</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="7"/>
-        <v>45</v>
+        <f>((J$6*$H41)*$D$9)*$C$21</f>
+        <v>67.199999999999989</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="7"/>
-        <v>180</v>
+        <f>((K$6*$H41)*$D$9)*$C$21</f>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
@@ -1681,39 +3590,39 @@
         <v>3</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" si="3"/>
-        <v>75</v>
+        <f>(H$6*$B42)*$C$9</f>
+        <v>78.75</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <f>(I$6*$B42)*$C$9</f>
+        <v>47.25</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="5"/>
-        <v>45</v>
+        <f>(J$6*$B42)*$C$9</f>
+        <v>22.049999999999997</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="6"/>
-        <v>180</v>
+        <f>(K$6*$B42)*$C$9</f>
+        <v>110.25</v>
       </c>
       <c r="H42" s="2">
         <v>3</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" ref="I42:L42" si="8">((H$6*$H42)*$D$11)*$C$21</f>
-        <v>112.5</v>
+        <f>((H$6*$H42)*$D$9)*$C$21</f>
+        <v>360</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="8"/>
-        <v>90</v>
+        <f>((I$6*$H42)*$D$9)*$C$21</f>
+        <v>216</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="8"/>
-        <v>67.5</v>
+        <f>((J$6*$H42)*$D$9)*$C$21</f>
+        <v>100.79999999999998</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" si="8"/>
-        <v>270</v>
+        <f>((K$6*$H42)*$D$9)*$C$21</f>
+        <v>504</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
@@ -1721,39 +3630,39 @@
         <v>4</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f>(H$6*$B43)*$C$9</f>
+        <v>105</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <f>(I$6*$B43)*$C$9</f>
+        <v>63</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="5"/>
-        <v>60</v>
+        <f>(J$6*$B43)*$C$9</f>
+        <v>29.4</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="6"/>
-        <v>240</v>
+        <f>(K$6*$B43)*$C$9</f>
+        <v>147</v>
       </c>
       <c r="H43" s="2">
         <v>4</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" ref="I43:L43" si="9">((H$6*$H43)*$D$11)*$C$21</f>
-        <v>150</v>
+        <f>((H$6*$H43)*$D$9)*$C$21</f>
+        <v>480</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="9"/>
-        <v>120</v>
+        <f>((I$6*$H43)*$D$9)*$C$21</f>
+        <v>288</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="9"/>
-        <v>90</v>
+        <f>((J$6*$H43)*$D$9)*$C$21</f>
+        <v>134.39999999999998</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" si="9"/>
-        <v>360</v>
+        <f>((K$6*$H43)*$D$9)*$C$21</f>
+        <v>672</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
@@ -1761,39 +3670,39 @@
         <v>5</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="3"/>
-        <v>125</v>
+        <f>(H$6*$B44)*$C$9</f>
+        <v>131.25</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f>(I$6*$B44)*$C$9</f>
+        <v>78.75</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="5"/>
-        <v>75</v>
+        <f>(J$6*$B44)*$C$9</f>
+        <v>36.75</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="6"/>
-        <v>300</v>
+        <f>(K$6*$B44)*$C$9</f>
+        <v>183.75</v>
       </c>
       <c r="H44" s="2">
         <v>5</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" ref="I44:L44" si="10">((H$6*$H44)*$D$11)*$C$21</f>
-        <v>187.5</v>
+        <f>((H$6*$H44)*$D$9)*$C$21</f>
+        <v>600</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="10"/>
-        <v>150</v>
+        <f>((I$6*$H44)*$D$9)*$C$21</f>
+        <v>360</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="10"/>
-        <v>112.5</v>
+        <f>((J$6*$H44)*$D$9)*$C$21</f>
+        <v>168</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" si="10"/>
-        <v>450</v>
+        <f>((K$6*$H44)*$D$9)*$C$21</f>
+        <v>840</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
@@ -1801,39 +3710,39 @@
         <v>6</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f>(H$6*$B45)*$C$9</f>
+        <v>157.5</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="4"/>
-        <v>120</v>
+        <f>(I$6*$B45)*$C$9</f>
+        <v>94.5</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="5"/>
-        <v>90</v>
+        <f>(J$6*$B45)*$C$9</f>
+        <v>44.099999999999994</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="6"/>
-        <v>360</v>
+        <f>(K$6*$B45)*$C$9</f>
+        <v>220.5</v>
       </c>
       <c r="H45" s="2">
         <v>6</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" ref="I45:L45" si="11">((H$6*$H45)*$D$11)*$C$21</f>
-        <v>225</v>
+        <f>((H$6*$H45)*$D$9)*$C$21</f>
+        <v>720</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="11"/>
-        <v>180</v>
+        <f>((I$6*$H45)*$D$9)*$C$21</f>
+        <v>432</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="11"/>
-        <v>135</v>
+        <f>((J$6*$H45)*$D$9)*$C$21</f>
+        <v>201.59999999999997</v>
       </c>
       <c r="L45" s="2">
-        <f t="shared" si="11"/>
-        <v>540</v>
+        <f>((K$6*$H45)*$D$9)*$C$21</f>
+        <v>1008</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
@@ -1841,39 +3750,39 @@
         <v>7</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" si="3"/>
-        <v>175</v>
+        <f>(H$6*$B46)*$C$9</f>
+        <v>183.75</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="4"/>
-        <v>140</v>
+        <f>(I$6*$B46)*$C$9</f>
+        <v>110.25</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="5"/>
-        <v>105</v>
+        <f>(J$6*$B46)*$C$9</f>
+        <v>51.449999999999996</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="6"/>
-        <v>420</v>
+        <f>(K$6*$B46)*$C$9</f>
+        <v>257.25</v>
       </c>
       <c r="H46" s="2">
         <v>7</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" ref="I46:L46" si="12">((H$6*$H46)*$D$11)*$C$21</f>
-        <v>262.5</v>
+        <f>((H$6*$H46)*$D$9)*$C$21</f>
+        <v>840</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="12"/>
-        <v>210</v>
+        <f>((I$6*$H46)*$D$9)*$C$21</f>
+        <v>504</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="12"/>
-        <v>157.5</v>
+        <f>((J$6*$H46)*$D$9)*$C$21</f>
+        <v>235.2</v>
       </c>
       <c r="L46" s="2">
-        <f t="shared" si="12"/>
-        <v>630</v>
+        <f>((K$6*$H46)*$D$9)*$C$21</f>
+        <v>1176</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
@@ -1881,39 +3790,39 @@
         <v>8</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <f>(H$6*$B47)*$C$9</f>
+        <v>210</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="4"/>
-        <v>160</v>
+        <f>(I$6*$B47)*$C$9</f>
+        <v>126</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="5"/>
-        <v>120</v>
+        <f>(J$6*$B47)*$C$9</f>
+        <v>58.8</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="6"/>
-        <v>480</v>
+        <f>(K$6*$B47)*$C$9</f>
+        <v>294</v>
       </c>
       <c r="H47" s="2">
         <v>8</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" ref="I47:L47" si="13">((H$6*$H47)*$D$11)*$C$21</f>
-        <v>300</v>
+        <f>((H$6*$H47)*$D$9)*$C$21</f>
+        <v>960</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="13"/>
-        <v>240</v>
+        <f>((I$6*$H47)*$D$9)*$C$21</f>
+        <v>576</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="13"/>
-        <v>180</v>
+        <f>((J$6*$H47)*$D$9)*$C$21</f>
+        <v>268.79999999999995</v>
       </c>
       <c r="L47" s="2">
-        <f t="shared" si="13"/>
-        <v>720</v>
+        <f>((K$6*$H47)*$D$9)*$C$21</f>
+        <v>1344</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
@@ -1921,39 +3830,39 @@
         <v>9</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" si="3"/>
-        <v>225</v>
+        <f>(H$6*$B48)*$C$9</f>
+        <v>236.25</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="4"/>
-        <v>180</v>
+        <f>(I$6*$B48)*$C$9</f>
+        <v>141.75</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="5"/>
-        <v>135</v>
+        <f>(J$6*$B48)*$C$9</f>
+        <v>66.149999999999991</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="6"/>
-        <v>540</v>
+        <f>(K$6*$B48)*$C$9</f>
+        <v>330.75</v>
       </c>
       <c r="H48" s="2">
         <v>9</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" ref="I48:L48" si="14">((H$6*$H48)*$D$11)*$C$21</f>
-        <v>337.5</v>
+        <f>((H$6*$H48)*$D$9)*$C$21</f>
+        <v>1080</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="14"/>
-        <v>270</v>
+        <f>((I$6*$H48)*$D$9)*$C$21</f>
+        <v>648</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" si="14"/>
-        <v>202.5</v>
+        <f>((J$6*$H48)*$D$9)*$C$21</f>
+        <v>302.39999999999998</v>
       </c>
       <c r="L48" s="2">
-        <f t="shared" si="14"/>
-        <v>810</v>
+        <f>((K$6*$H48)*$D$9)*$C$21</f>
+        <v>1512</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
@@ -1961,45 +3870,47 @@
         <v>10</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <f>(H$6*$B49)*$C$9</f>
+        <v>262.5</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f>(I$6*$B49)*$C$9</f>
+        <v>157.5</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="5"/>
-        <v>150</v>
+        <f>(J$6*$B49)*$C$9</f>
+        <v>73.5</v>
       </c>
       <c r="F49" s="2">
-        <f>(K$6*$B49)*$C$11</f>
-        <v>600</v>
+        <f>(K$6*$B49)*$C$9</f>
+        <v>367.5</v>
       </c>
       <c r="H49" s="2">
         <v>10</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" ref="I49:L49" si="15">((H$6*$H49)*$D$11)*$C$21</f>
-        <v>375</v>
+        <f>((H$6*$H49)*$D$9)*$C$21</f>
+        <v>1200</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" si="15"/>
-        <v>300</v>
+        <f>((I$6*$H49)*$D$9)*$C$21</f>
+        <v>720</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="15"/>
-        <v>225</v>
+        <f>((J$6*$H49)*$D$9)*$C$21</f>
+        <v>336</v>
       </c>
       <c r="L49" s="2">
-        <f t="shared" si="15"/>
-        <v>900</v>
+        <f>((K$6*$H49)*$D$9)*$C$21</f>
+        <v>1680</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="X16:Y16"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="H38:L38"/>
+    <mergeCell ref="U16:V16"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
@@ -2014,7 +3925,8 @@
     <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2030,123 +3942,123 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -2154,123 +4066,123 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2">
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" s="2">
         <v>8</v>

--- a/notes/Balancing.xlsx
+++ b/notes/Balancing.xlsx
@@ -2567,7 +2567,7 @@
   <dimension ref="B3:Y49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2661,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -2702,7 +2702,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
@@ -2828,19 +2828,19 @@
       </c>
       <c r="H10" s="2">
         <f>H6+(H6*E6)</f>
-        <v>1.75</v>
+        <v>1.625</v>
       </c>
       <c r="I10" s="2">
         <f>I6+(I6*E6)</f>
-        <v>1.05</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="J10" s="2">
         <f>J6+(J6*E6)</f>
-        <v>0.49</v>
+        <v>0.45499999999999996</v>
       </c>
       <c r="K10" s="2">
         <f>K6+(K6*E6)</f>
-        <v>2.4500000000000002</v>
+        <v>2.2749999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.3">
